--- a/Data/EC/NIT-8060054911.xlsx
+++ b/Data/EC/NIT-8060054911.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6EACB7-AA74-4F30-ACE8-437588F635C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E929FF-C9B6-46C4-9A79-7FB0E3259443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8A2D7292-4FFB-4280-A19C-E1FEFAFC4DCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{745E6C06-BB10-4101-AD08-B5D7BADD6EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,16 +71,16 @@
     <t>RINA MARCELA GOMEZ MUÑOZ</t>
   </si>
   <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
     <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -494,7 +494,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363BA1DA-2D1C-1A83-703F-0AB8B3510AE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55DB349-7E01-E29C-9191-D189ADC361D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,7 +845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A70750B-C3AC-451E-827D-A398622E36D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C1236E-E162-43C8-97EB-D04948122026}">
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
